--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIGUELONCHES\Downloads\Talleres\Miercoles\projects\kpi-dashboard\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABE81B9-0018-4AC1-A2C6-7365DA4048D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1008" yWindow="876" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -346,8 +352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,10 +405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,11 +419,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,9 +505,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,6 +557,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,14 +750,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,2003 +782,2003 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2">
         <v>236.85</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>29.4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>322.76</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>198.76</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2">
         <v>419.95</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>102.4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2">
         <v>76.19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>123.4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>204</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2">
         <v>437.04</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>266.33</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>205</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2">
         <v>432.06</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>39.76</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>459.09</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>65.52</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2">
         <v>67.42</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>279.11</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2">
         <v>150.76</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>261.3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>209</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="2">
         <v>153.31</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>89.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>210</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="2">
         <v>113.14</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>194.38</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>211</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="2">
         <v>354.44</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>226.92</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>212</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2">
         <v>224.07</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>90.47</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>213</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2">
         <v>423.18</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>240.01</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>214</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2">
         <v>189.7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>46.59</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>215</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2">
         <v>454.98</v>
       </c>
-      <c r="E17">
-        <v>293.78</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="2">
+        <v>293.77999999999997</v>
+      </c>
+      <c r="F17" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>216</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2">
         <v>312.76</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>260.67</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>217</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19">
-        <v>153.77</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2">
+        <v>153.77000000000001</v>
+      </c>
+      <c r="E19" s="2">
         <v>292.68</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>218</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D20">
-        <v>78.79000000000001</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="2">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="E20" s="2">
         <v>123.83</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>219</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2">
         <v>274.89</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>269.75</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="2">
         <v>461.51</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>59.79</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>221</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23">
-        <v>267.97</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="2">
+        <v>267.97000000000003</v>
+      </c>
+      <c r="E23" s="2">
         <v>268.39</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>222</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2">
         <v>124.26</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>33.07</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>223</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2">
         <v>244.67</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>148.26</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>224</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="2">
         <v>322.89</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>77.66</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>225</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2">
         <v>191.47</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>167.94</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>226</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2">
         <v>82.36</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>219.92</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>227</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2">
         <v>404.1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>164.52</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>228</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="2">
         <v>230.69</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>290.42</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>229</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="2">
         <v>55.83</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>33.19</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>230</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D32">
-        <v>300.78</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="2">
+        <v>300.77999999999997</v>
+      </c>
+      <c r="E32" s="2">
         <v>105.15</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>231</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33">
-        <v>139.77</v>
-      </c>
-      <c r="E33">
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="2">
+        <v>139.77000000000001</v>
+      </c>
+      <c r="E33" s="2">
         <v>199.19</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>232</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="2">
         <v>162.49</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>194.79</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>233</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="2">
         <v>184.11</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>21.36</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>234</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2">
         <v>201.64</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>229.03</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>235</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37">
-        <v>300.97</v>
-      </c>
-      <c r="E37">
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2">
+        <v>300.97000000000003</v>
+      </c>
+      <c r="E37" s="2">
         <v>221.99</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>236</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>251.75</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>96.38</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>237</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39">
-        <v>298.22</v>
-      </c>
-      <c r="E39">
-        <v>297.1</v>
-      </c>
-      <c r="F39">
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="2">
+        <v>298.22000000000003</v>
+      </c>
+      <c r="E39" s="2">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="F39" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>238</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="2">
         <v>338.12</v>
       </c>
-      <c r="E40">
-        <v>132.48</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="2">
+        <v>132.47999999999999</v>
+      </c>
+      <c r="F40" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>239</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="2">
         <v>427.24</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>93.87</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>240</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>485.78</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>65.13</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>241</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="2">
         <v>156.74</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>102.83</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>242</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="2">
         <v>378.43</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>133.57</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>243</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D45">
-        <v>78.93000000000001</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="2">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="E45" s="2">
         <v>213.03</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>244</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>395.83</v>
       </c>
-      <c r="E46">
-        <v>267.53</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="2">
+        <v>267.52999999999997</v>
+      </c>
+      <c r="F46" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>245</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="2">
         <v>356.1</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>63.45</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>246</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>162.72</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>168.9</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>247</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="2">
         <v>200.02</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>278.87</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>248</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2">
         <v>154.66</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>85.56</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>249</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="2">
         <v>72</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>122.05</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>250</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>160.04</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>244.01</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>251</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>328.25</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>184.81</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>252</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54">
-        <v>131.39</v>
-      </c>
-      <c r="E54">
+      <c r="C54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="2">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="E54" s="2">
         <v>288.38</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>253</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="2">
         <v>198.79</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>290.01</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>254</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="2">
         <v>164.26</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>67.3</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>255</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57">
-        <v>263.84</v>
-      </c>
-      <c r="E57">
+      <c r="C57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="2">
+        <v>263.83999999999997</v>
+      </c>
+      <c r="E57" s="2">
         <v>102.13</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>256</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C58" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="2">
         <v>428.36</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>140.04</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>257</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="2">
         <v>167.59</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>151.72</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>258</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>353.32</v>
       </c>
-      <c r="E60">
-        <v>262.34</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="2">
+        <v>262.33999999999997</v>
+      </c>
+      <c r="F60" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>259</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="2">
         <v>59.75</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>164.43</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>260</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>80.88</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>62.57</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>261</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="2">
         <v>216.13</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>59.82</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>262</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64">
-        <v>86.01000000000001</v>
-      </c>
-      <c r="E64">
+      <c r="C64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="2">
+        <v>86.01</v>
+      </c>
+      <c r="E64" s="2">
         <v>85.88</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>263</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="2">
         <v>305.63</v>
       </c>
-      <c r="E65">
-        <v>20.01</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="2">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="F65" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>264</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="2">
         <v>340.32</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>82.31</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>265</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="2">
         <v>210.17</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>104.68</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>266</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68">
+      <c r="C68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="2">
         <v>302.33</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>77.03</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>267</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="2">
         <v>337.32</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>20.97</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>268</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C70" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="2">
         <v>375.7</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>250.78</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>269</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="2">
         <v>426.79</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>116.54</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>270</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>73.91</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>207.39</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>271</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C73" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="2">
         <v>345.79</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>266.48</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>272</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="2">
         <v>248.58</v>
       </c>
-      <c r="E74">
-        <v>258.72</v>
-      </c>
-      <c r="F74">
+      <c r="E74" s="2">
+        <v>258.72000000000003</v>
+      </c>
+      <c r="F74" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>273</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="2">
         <v>215.11</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>221.24</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>274</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C76" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="2">
         <v>199.69</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>159.5</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>275</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="2">
         <v>208.42</v>
       </c>
-      <c r="E77">
-        <v>36.2</v>
-      </c>
-      <c r="F77">
+      <c r="E77" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F77" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>276</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="2">
         <v>64.19</v>
       </c>
-      <c r="E78">
-        <v>266.84</v>
-      </c>
-      <c r="F78">
+      <c r="E78" s="2">
+        <v>266.83999999999997</v>
+      </c>
+      <c r="F78" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>277</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="2">
         <v>50.8</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>46.52</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>278</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C80" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="2">
         <v>426.23</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>20.8</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>279</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>84.52</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>45.17</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>280</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="2">
         <v>171.33</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>97.19</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>281</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="2">
         <v>205.51</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>34.35</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>282</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C84" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="2">
         <v>117.99</v>
       </c>
-      <c r="E84">
-        <v>92.23999999999999</v>
-      </c>
-      <c r="F84">
+      <c r="E84" s="2">
+        <v>92.24</v>
+      </c>
+      <c r="F84" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>283</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="2">
         <v>136.94</v>
       </c>
-      <c r="E85">
-        <v>89.23999999999999</v>
-      </c>
-      <c r="F85">
+      <c r="E85" s="2">
+        <v>89.24</v>
+      </c>
+      <c r="F85" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>284</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C86" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="2">
         <v>374.89</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>95.59</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>285</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C87" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="2">
         <v>197.93</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>220.17</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>286</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>197.15</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>62.84</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>287</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C89" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="2">
         <v>322.25</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>238.49</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>288</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="2">
         <v>393.19</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>134.78</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>289</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>382.21</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>221.04</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>290</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C92" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="2">
         <v>284.61</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>137.56</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>291</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C93" t="s">
-        <v>106</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="2">
         <v>366.07</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>75.77</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>292</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C94" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" s="2">
         <v>245.15</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>136.85</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>293</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C95" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="2">
         <v>74.53</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>126.79</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>294</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D96">
-        <v>315.16</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="2">
+        <v>315.16000000000003</v>
+      </c>
+      <c r="E96" s="2">
         <v>261.01</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>295</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97">
+      <c r="C97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="2">
         <v>267.37</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>213.78</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>296</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C98" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="2">
         <v>447.48</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>248.53</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>297</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>250.78</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <v>123.06</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>298</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C100" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100">
+      <c r="C100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="2">
         <v>484.49</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <v>277.14</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>299</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101">
+      <c r="C101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="2">
         <v>212.63</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>161.31</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>21</v>
       </c>
     </row>
